--- a/results/ML/DT_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/DT_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C287280-3525-473A-AE69-3DF670ED9AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6DFA05-CF60-4FE2-B41C-38B6A17B0067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,8 +183,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     12.06
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.03e-51
-Time:                        21:00:00   Log-Likelihood:                -154.98
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.03e-51
+Time:                        16:11:33   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             394.0
 Df Residuals:                     495   BIC:                             574.0
 Df Model:                          41                                         
@@ -251,8 +251,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     12.38
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.89e-52
-Time:                        21:00:00   Log-Likelihood:                -154.98
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.89e-52
+Time:                        16:11:33   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             392.0
 Df Residuals:                     496   BIC:                             567.7
 Df Model:                          40                                         
@@ -318,8 +318,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.73
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.04e-53
-Time:                        21:00:00   Log-Likelihood:                -154.98
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.04e-53
+Time:                        16:11:33   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             390.0
 Df Residuals:                     497   BIC:                             561.4
 Df Model:                          39                                         
@@ -384,8 +384,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.461
 Method:                 Least Squares   F-statistic:                     13.09
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.21e-53
-Time:                        21:00:00   Log-Likelihood:                -154.99
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.21e-53
+Time:                        16:11:33   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             388.0
 Df Residuals:                     498   BIC:                             555.1
 Df Model:                          38                                         
@@ -449,8 +449,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.463
 Method:                 Least Squares   F-statistic:                     13.47
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.97e-54
-Time:                        21:00:00   Log-Likelihood:                -154.99
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.97e-54
+Time:                        16:11:33   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             386.0
 Df Residuals:                     499   BIC:                             548.8
 Df Model:                          37                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.464
 Method:                 Least Squares   F-statistic:                     13.87
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.59e-54
-Time:                        21:00:00   Log-Likelihood:                -154.99
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.59e-54
+Time:                        16:11:33   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             384.0
 Df Residuals:                     500   BIC:                             542.6
 Df Model:                          36                                         
@@ -576,8 +576,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.465
 Method:                 Least Squares   F-statistic:                     14.29
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.30e-55
-Time:                        21:00:00   Log-Likelihood:                -155.03
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.30e-55
+Time:                        16:11:33   Log-Likelihood:                -155.03
 No. Observations:                 537   AIC:                             382.1
 Df Residuals:                     501   BIC:                             536.4
 Df Model:                          35                                         
@@ -638,8 +638,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.466
 Method:                 Least Squares   F-statistic:                     14.74
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.14e-55
-Time:                        21:00:00   Log-Likelihood:                -155.06
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.14e-55
+Time:                        16:11:33   Log-Likelihood:                -155.06
 No. Observations:                 537   AIC:                             380.1
 Df Residuals:                     502   BIC:                             530.1
 Df Model:                          34                                         
@@ -699,8 +699,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     15.21
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.98e-56
-Time:                        21:00:00   Log-Likelihood:                -155.09
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.98e-56
+Time:                        16:11:33   Log-Likelihood:                -155.09
 No. Observations:                 537   AIC:                             378.2
 Df Residuals:                     503   BIC:                             523.9
 Df Model:                          33                                         
@@ -759,8 +759,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.468
 Method:                 Least Squares   F-statistic:                     15.71
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           7.50e-57
-Time:                        21:00:00   Log-Likelihood:                -155.10
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           7.50e-57
+Time:                        16:11:33   Log-Likelihood:                -155.10
 No. Observations:                 537   AIC:                             376.2
 Df Residuals:                     504   BIC:                             517.6
 Df Model:                          32                                         
@@ -818,8 +818,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.469
 Method:                 Least Squares   F-statistic:                     16.25
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.91e-57
-Time:                        21:00:00   Log-Likelihood:                -155.15
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.91e-57
+Time:                        16:11:33   Log-Likelihood:                -155.15
 No. Observations:                 537   AIC:                             374.3
 Df Residuals:                     505   BIC:                             511.4
 Df Model:                          31                                         
@@ -876,8 +876,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     16.81
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.91e-58
-Time:                        21:00:00   Log-Likelihood:                -155.22
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.91e-58
+Time:                        16:11:33   Log-Likelihood:                -155.22
 No. Observations:                 537   AIC:                             372.4
 Df Residuals:                     506   BIC:                             505.3
 Df Model:                          30                                         
@@ -933,8 +933,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     17.42
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.22e-58
-Time:                        21:00:00   Log-Likelihood:                -155.27
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.22e-58
+Time:                        16:11:33   Log-Likelihood:                -155.27
 No. Observations:                 537   AIC:                             370.5
 Df Residuals:                     507   BIC:                             499.1
 Df Model:                          29                                         
@@ -989,8 +989,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     18.07
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.10e-59
-Time:                        21:00:00   Log-Likelihood:                -155.37
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.10e-59
+Time:                        16:11:33   Log-Likelihood:                -155.37
 No. Observations:                 537   AIC:                             368.7
 Df Residuals:                     508   BIC:                             493.0
 Df Model:                          28                                         
@@ -1044,8 +1044,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     18.75
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.16e-60
-Time:                        21:00:00   Log-Likelihood:                -155.53
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.16e-60
+Time:                        16:11:33   Log-Likelihood:                -155.53
 No. Observations:                 537   AIC:                             367.1
 Df Residuals:                     509   BIC:                             487.1
 Df Model:                          27                                         
@@ -1098,8 +1098,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     19.50
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.99e-60
-Time:                        21:00:00   Log-Likelihood:                -155.62
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.99e-60
+Time:                        16:11:33   Log-Likelihood:                -155.62
 No. Observations:                 537   AIC:                             365.2
 Df Residuals:                     510   BIC:                             481.0
 Df Model:                          26                                         
@@ -1149,8 +1149,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     20.28
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.22e-61
-Time:                        21:00:00   Log-Likelihood:                -155.82
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.22e-61
+Time:                        16:11:33   Log-Likelihood:                -155.82
 No. Observations:                 537   AIC:                             363.6
 Df Residuals:                     511   BIC:                             475.1
 Df Model:                          25                                         
@@ -1199,8 +1199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     21.14
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.31e-61
-Time:                        21:00:00   Log-Likelihood:                -155.99
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.31e-61
+Time:                        16:11:33   Log-Likelihood:                -155.99
 No. Observations:                 537   AIC:                             362.0
 Df Residuals:                     512   BIC:                             469.1
 Df Model:                          24                                         
@@ -1248,8 +1248,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.497
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.02
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.36e-62
-Time:                        21:00:00   Log-Likelihood:                -156.50
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.36e-62
+Time:                        16:11:33   Log-Likelihood:                -156.50
 No. Observations:                 537   AIC:                             361.0
 Df Residuals:                     513   BIC:                             463.9
 Df Model:                          23                                         
@@ -1296,8 +1296,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.496
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.98
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.42e-62
-Time:                        21:00:00   Log-Likelihood:                -157.00
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.42e-62
+Time:                        16:11:33   Log-Likelihood:                -157.00
 No. Observations:                 537   AIC:                             360.0
 Df Residuals:                     514   BIC:                             458.6
 Df Model:                          22                                         
@@ -1343,8 +1343,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.495
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     24.01
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.02e-63
-Time:                        21:00:00   Log-Likelihood:                -157.61
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.02e-63
+Time:                        16:11:33   Log-Likelihood:                -157.61
 No. Observations:                 537   AIC:                             359.2
 Df Residuals:                     515   BIC:                             453.5
 Df Model:                          21                                         
@@ -1389,8 +1389,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.493
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     25.14
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.83e-63
-Time:                        21:00:00   Log-Likelihood:                -158.28
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.83e-63
+Time:                        16:11:33   Log-Likelihood:                -158.28
 No. Observations:                 537   AIC:                             358.6
 Df Residuals:                     516   BIC:                             448.6
 Df Model:                          20                                         
@@ -1434,8 +1434,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.492
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     26.37
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.62e-64
-Time:                        21:00:00   Log-Likelihood:                -158.97
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.62e-64
+Time:                        16:11:33   Log-Likelihood:                -158.97
 No. Observations:                 537   AIC:                             357.9
 Df Residuals:                     517   BIC:                             443.7
 Df Model:                          19                                         
@@ -1478,8 +1478,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.491
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     27.74
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.41e-64
-Time:                        21:00:00   Log-Likelihood:                -159.69
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.41e-64
+Time:                        16:11:33   Log-Likelihood:                -159.69
 No. Observations:                 537   AIC:                             357.4
 Df Residuals:                     518   BIC:                             438.8
 Df Model:                          18                                         
@@ -1521,8 +1521,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.490
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     29.30
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           7.46e-65
-Time:                        21:00:00   Log-Likelihood:                -160.26
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           7.46e-65
+Time:                        16:11:33   Log-Likelihood:                -160.26
 No. Observations:                 537   AIC:                             356.5
 Df Residuals:                     519   BIC:                             433.7
 Df Model:                          17                                         
@@ -1563,8 +1563,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.488
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     30.95
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.50e-65
-Time:                        21:00:00   Log-Likelihood:                -161.30
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.50e-65
+Time:                        16:11:33   Log-Likelihood:                -161.30
 No. Observations:                 537   AIC:                             356.6
 Df Residuals:                     520   BIC:                             429.5
 Df Model:                          16                                         
@@ -1604,8 +1604,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.486
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     32.78
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.78e-65
-Time:                        21:00:00   Log-Likelihood:                -162.46
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.78e-65
+Time:                        16:11:33   Log-Likelihood:                -162.46
 No. Observations:                 537   AIC:                             356.9
 Df Residuals:                     521   BIC:                             425.5
 Df Model:                          15                                         
@@ -1644,8 +1644,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.480
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     37.10
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.13e-66
-Time:                        21:00:00   Log-Likelihood:                -165.46
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.13e-66
+Time:                        16:11:33   Log-Likelihood:                -165.46
 No. Observations:                 537   AIC:                             358.9
 Df Residuals:                     523   BIC:                             418.9
 Df Model:                          13                                         

--- a/results/ML/DT_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/DT_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6DFA05-CF60-4FE2-B41C-38B6A17B0067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C06F55-F3BC-423E-9628-CA644F85FF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,8 +183,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     12.06
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.03e-51
-Time:                        16:11:33   Log-Likelihood:                -154.98
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.03e-51
+Time:                        23:19:09   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             394.0
 Df Residuals:                     495   BIC:                             574.0
 Df Model:                          41                                         
@@ -251,8 +251,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     12.38
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.89e-52
-Time:                        16:11:33   Log-Likelihood:                -154.98
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.89e-52
+Time:                        23:19:09   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             392.0
 Df Residuals:                     496   BIC:                             567.7
 Df Model:                          40                                         
@@ -318,8 +318,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.73
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.04e-53
-Time:                        16:11:33   Log-Likelihood:                -154.98
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.04e-53
+Time:                        23:19:09   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             390.0
 Df Residuals:                     497   BIC:                             561.4
 Df Model:                          39                                         
@@ -384,8 +384,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.461
 Method:                 Least Squares   F-statistic:                     13.09
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.21e-53
-Time:                        16:11:33   Log-Likelihood:                -154.99
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.21e-53
+Time:                        23:19:09   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             388.0
 Df Residuals:                     498   BIC:                             555.1
 Df Model:                          38                                         
@@ -449,8 +449,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.463
 Method:                 Least Squares   F-statistic:                     13.47
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.97e-54
-Time:                        16:11:33   Log-Likelihood:                -154.99
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.97e-54
+Time:                        23:19:09   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             386.0
 Df Residuals:                     499   BIC:                             548.8
 Df Model:                          37                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.464
 Method:                 Least Squares   F-statistic:                     13.87
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.59e-54
-Time:                        16:11:33   Log-Likelihood:                -154.99
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.59e-54
+Time:                        23:19:09   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             384.0
 Df Residuals:                     500   BIC:                             542.6
 Df Model:                          36                                         
@@ -576,8 +576,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.465
 Method:                 Least Squares   F-statistic:                     14.29
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.30e-55
-Time:                        16:11:33   Log-Likelihood:                -155.03
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.30e-55
+Time:                        23:19:09   Log-Likelihood:                -155.03
 No. Observations:                 537   AIC:                             382.1
 Df Residuals:                     501   BIC:                             536.4
 Df Model:                          35                                         
@@ -638,8 +638,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.466
 Method:                 Least Squares   F-statistic:                     14.74
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.14e-55
-Time:                        16:11:33   Log-Likelihood:                -155.06
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.14e-55
+Time:                        23:19:09   Log-Likelihood:                -155.06
 No. Observations:                 537   AIC:                             380.1
 Df Residuals:                     502   BIC:                             530.1
 Df Model:                          34                                         
@@ -699,8 +699,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     15.21
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.98e-56
-Time:                        16:11:33   Log-Likelihood:                -155.09
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.98e-56
+Time:                        23:19:09   Log-Likelihood:                -155.09
 No. Observations:                 537   AIC:                             378.2
 Df Residuals:                     503   BIC:                             523.9
 Df Model:                          33                                         
@@ -759,8 +759,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.468
 Method:                 Least Squares   F-statistic:                     15.71
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           7.50e-57
-Time:                        16:11:33   Log-Likelihood:                -155.10
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           7.50e-57
+Time:                        23:19:09   Log-Likelihood:                -155.10
 No. Observations:                 537   AIC:                             376.2
 Df Residuals:                     504   BIC:                             517.6
 Df Model:                          32                                         
@@ -818,8 +818,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.469
 Method:                 Least Squares   F-statistic:                     16.25
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.91e-57
-Time:                        16:11:33   Log-Likelihood:                -155.15
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.91e-57
+Time:                        23:19:09   Log-Likelihood:                -155.15
 No. Observations:                 537   AIC:                             374.3
 Df Residuals:                     505   BIC:                             511.4
 Df Model:                          31                                         
@@ -876,8 +876,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     16.81
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.91e-58
-Time:                        16:11:33   Log-Likelihood:                -155.22
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.91e-58
+Time:                        23:19:09   Log-Likelihood:                -155.22
 No. Observations:                 537   AIC:                             372.4
 Df Residuals:                     506   BIC:                             505.3
 Df Model:                          30                                         
@@ -933,8 +933,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     17.42
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.22e-58
-Time:                        16:11:33   Log-Likelihood:                -155.27
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.22e-58
+Time:                        23:19:09   Log-Likelihood:                -155.27
 No. Observations:                 537   AIC:                             370.5
 Df Residuals:                     507   BIC:                             499.1
 Df Model:                          29                                         
@@ -989,8 +989,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     18.07
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.10e-59
-Time:                        16:11:33   Log-Likelihood:                -155.37
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.10e-59
+Time:                        23:19:09   Log-Likelihood:                -155.37
 No. Observations:                 537   AIC:                             368.7
 Df Residuals:                     508   BIC:                             493.0
 Df Model:                          28                                         
@@ -1044,8 +1044,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     18.75
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.16e-60
-Time:                        16:11:33   Log-Likelihood:                -155.53
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.16e-60
+Time:                        23:19:09   Log-Likelihood:                -155.53
 No. Observations:                 537   AIC:                             367.1
 Df Residuals:                     509   BIC:                             487.1
 Df Model:                          27                                         
@@ -1098,8 +1098,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     19.50
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.99e-60
-Time:                        16:11:33   Log-Likelihood:                -155.62
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.99e-60
+Time:                        23:19:09   Log-Likelihood:                -155.62
 No. Observations:                 537   AIC:                             365.2
 Df Residuals:                     510   BIC:                             481.0
 Df Model:                          26                                         
@@ -1149,8 +1149,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     20.28
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.22e-61
-Time:                        16:11:33   Log-Likelihood:                -155.82
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.22e-61
+Time:                        23:19:09   Log-Likelihood:                -155.82
 No. Observations:                 537   AIC:                             363.6
 Df Residuals:                     511   BIC:                             475.1
 Df Model:                          25                                         
@@ -1199,8 +1199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     21.14
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.31e-61
-Time:                        16:11:33   Log-Likelihood:                -155.99
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.31e-61
+Time:                        23:19:09   Log-Likelihood:                -155.99
 No. Observations:                 537   AIC:                             362.0
 Df Residuals:                     512   BIC:                             469.1
 Df Model:                          24                                         
@@ -1248,8 +1248,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.497
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.02
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.36e-62
-Time:                        16:11:33   Log-Likelihood:                -156.50
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.36e-62
+Time:                        23:19:09   Log-Likelihood:                -156.50
 No. Observations:                 537   AIC:                             361.0
 Df Residuals:                     513   BIC:                             463.9
 Df Model:                          23                                         
@@ -1296,8 +1296,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.496
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.98
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.42e-62
-Time:                        16:11:33   Log-Likelihood:                -157.00
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.42e-62
+Time:                        23:19:10   Log-Likelihood:                -157.00
 No. Observations:                 537   AIC:                             360.0
 Df Residuals:                     514   BIC:                             458.6
 Df Model:                          22                                         
@@ -1343,8 +1343,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.495
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     24.01
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.02e-63
-Time:                        16:11:33   Log-Likelihood:                -157.61
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.02e-63
+Time:                        23:19:10   Log-Likelihood:                -157.61
 No. Observations:                 537   AIC:                             359.2
 Df Residuals:                     515   BIC:                             453.5
 Df Model:                          21                                         
@@ -1389,8 +1389,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.493
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     25.14
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.83e-63
-Time:                        16:11:33   Log-Likelihood:                -158.28
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.83e-63
+Time:                        23:19:10   Log-Likelihood:                -158.28
 No. Observations:                 537   AIC:                             358.6
 Df Residuals:                     516   BIC:                             448.6
 Df Model:                          20                                         
@@ -1434,8 +1434,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.492
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     26.37
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.62e-64
-Time:                        16:11:33   Log-Likelihood:                -158.97
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.62e-64
+Time:                        23:19:10   Log-Likelihood:                -158.97
 No. Observations:                 537   AIC:                             357.9
 Df Residuals:                     517   BIC:                             443.7
 Df Model:                          19                                         
@@ -1478,8 +1478,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.491
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     27.74
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.41e-64
-Time:                        16:11:33   Log-Likelihood:                -159.69
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.41e-64
+Time:                        23:19:10   Log-Likelihood:                -159.69
 No. Observations:                 537   AIC:                             357.4
 Df Residuals:                     518   BIC:                             438.8
 Df Model:                          18                                         
@@ -1521,8 +1521,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.490
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     29.30
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           7.46e-65
-Time:                        16:11:33   Log-Likelihood:                -160.26
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           7.46e-65
+Time:                        23:19:10   Log-Likelihood:                -160.26
 No. Observations:                 537   AIC:                             356.5
 Df Residuals:                     519   BIC:                             433.7
 Df Model:                          17                                         
@@ -1563,8 +1563,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.488
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     30.95
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.50e-65
-Time:                        16:11:33   Log-Likelihood:                -161.30
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.50e-65
+Time:                        23:19:10   Log-Likelihood:                -161.30
 No. Observations:                 537   AIC:                             356.6
 Df Residuals:                     520   BIC:                             429.5
 Df Model:                          16                                         
@@ -1604,8 +1604,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.486
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     32.78
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.78e-65
-Time:                        16:11:33   Log-Likelihood:                -162.46
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.78e-65
+Time:                        23:19:10   Log-Likelihood:                -162.46
 No. Observations:                 537   AIC:                             356.9
 Df Residuals:                     521   BIC:                             425.5
 Df Model:                          15                                         
@@ -1644,8 +1644,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.480
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     37.10
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.13e-66
-Time:                        16:11:33   Log-Likelihood:                -165.46
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.13e-66
+Time:                        23:19:10   Log-Likelihood:                -165.46
 No. Observations:                 537   AIC:                             358.9
 Df Residuals:                     523   BIC:                             418.9
 Df Model:                          13                                         

--- a/results/ML/DT_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/DT_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C06F55-F3BC-423E-9628-CA644F85FF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF215EA2-F22D-4D50-A6F4-C34E877980AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="41" sheetId="1" r:id="rId1"/>
@@ -183,8 +183,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     12.06
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.03e-51
-Time:                        23:19:09   Log-Likelihood:                -154.98
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.03e-51
+Time:                        20:49:03   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             394.0
 Df Residuals:                     495   BIC:                             574.0
 Df Model:                          41                                         
@@ -251,8 +251,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     12.38
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.89e-52
-Time:                        23:19:09   Log-Likelihood:                -154.98
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.89e-52
+Time:                        20:49:03   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             392.0
 Df Residuals:                     496   BIC:                             567.7
 Df Model:                          40                                         
@@ -318,8 +318,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.73
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.04e-53
-Time:                        23:19:09   Log-Likelihood:                -154.98
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.04e-53
+Time:                        20:49:03   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             390.0
 Df Residuals:                     497   BIC:                             561.4
 Df Model:                          39                                         
@@ -384,8 +384,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.461
 Method:                 Least Squares   F-statistic:                     13.09
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.21e-53
-Time:                        23:19:09   Log-Likelihood:                -154.99
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.21e-53
+Time:                        20:49:03   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             388.0
 Df Residuals:                     498   BIC:                             555.1
 Df Model:                          38                                         
@@ -449,8 +449,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.463
 Method:                 Least Squares   F-statistic:                     13.47
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.97e-54
-Time:                        23:19:09   Log-Likelihood:                -154.99
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.97e-54
+Time:                        20:49:03   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             386.0
 Df Residuals:                     499   BIC:                             548.8
 Df Model:                          37                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.464
 Method:                 Least Squares   F-statistic:                     13.87
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.59e-54
-Time:                        23:19:09   Log-Likelihood:                -154.99
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.59e-54
+Time:                        20:49:03   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             384.0
 Df Residuals:                     500   BIC:                             542.6
 Df Model:                          36                                         
@@ -576,8 +576,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.465
 Method:                 Least Squares   F-statistic:                     14.29
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.30e-55
-Time:                        23:19:09   Log-Likelihood:                -155.03
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.30e-55
+Time:                        20:49:03   Log-Likelihood:                -155.03
 No. Observations:                 537   AIC:                             382.1
 Df Residuals:                     501   BIC:                             536.4
 Df Model:                          35                                         
@@ -638,8 +638,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.466
 Method:                 Least Squares   F-statistic:                     14.74
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.14e-55
-Time:                        23:19:09   Log-Likelihood:                -155.06
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.14e-55
+Time:                        20:49:03   Log-Likelihood:                -155.06
 No. Observations:                 537   AIC:                             380.1
 Df Residuals:                     502   BIC:                             530.1
 Df Model:                          34                                         
@@ -699,8 +699,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     15.21
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.98e-56
-Time:                        23:19:09   Log-Likelihood:                -155.09
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.98e-56
+Time:                        20:49:03   Log-Likelihood:                -155.09
 No. Observations:                 537   AIC:                             378.2
 Df Residuals:                     503   BIC:                             523.9
 Df Model:                          33                                         
@@ -759,8 +759,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.468
 Method:                 Least Squares   F-statistic:                     15.71
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           7.50e-57
-Time:                        23:19:09   Log-Likelihood:                -155.10
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           7.50e-57
+Time:                        20:49:03   Log-Likelihood:                -155.10
 No. Observations:                 537   AIC:                             376.2
 Df Residuals:                     504   BIC:                             517.6
 Df Model:                          32                                         
@@ -818,8 +818,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.469
 Method:                 Least Squares   F-statistic:                     16.25
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.91e-57
-Time:                        23:19:09   Log-Likelihood:                -155.15
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.91e-57
+Time:                        20:49:03   Log-Likelihood:                -155.15
 No. Observations:                 537   AIC:                             374.3
 Df Residuals:                     505   BIC:                             511.4
 Df Model:                          31                                         
@@ -876,8 +876,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     16.81
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.91e-58
-Time:                        23:19:09   Log-Likelihood:                -155.22
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.91e-58
+Time:                        20:49:03   Log-Likelihood:                -155.22
 No. Observations:                 537   AIC:                             372.4
 Df Residuals:                     506   BIC:                             505.3
 Df Model:                          30                                         
@@ -933,8 +933,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     17.42
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.22e-58
-Time:                        23:19:09   Log-Likelihood:                -155.27
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.22e-58
+Time:                        20:49:03   Log-Likelihood:                -155.27
 No. Observations:                 537   AIC:                             370.5
 Df Residuals:                     507   BIC:                             499.1
 Df Model:                          29                                         
@@ -989,8 +989,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     18.07
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.10e-59
-Time:                        23:19:09   Log-Likelihood:                -155.37
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.10e-59
+Time:                        20:49:03   Log-Likelihood:                -155.37
 No. Observations:                 537   AIC:                             368.7
 Df Residuals:                     508   BIC:                             493.0
 Df Model:                          28                                         
@@ -1044,8 +1044,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     18.75
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.16e-60
-Time:                        23:19:09   Log-Likelihood:                -155.53
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.16e-60
+Time:                        20:49:03   Log-Likelihood:                -155.53
 No. Observations:                 537   AIC:                             367.1
 Df Residuals:                     509   BIC:                             487.1
 Df Model:                          27                                         
@@ -1098,8 +1098,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     19.50
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.99e-60
-Time:                        23:19:09   Log-Likelihood:                -155.62
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.99e-60
+Time:                        20:49:03   Log-Likelihood:                -155.62
 No. Observations:                 537   AIC:                             365.2
 Df Residuals:                     510   BIC:                             481.0
 Df Model:                          26                                         
@@ -1149,8 +1149,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     20.28
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.22e-61
-Time:                        23:19:09   Log-Likelihood:                -155.82
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.22e-61
+Time:                        20:49:03   Log-Likelihood:                -155.82
 No. Observations:                 537   AIC:                             363.6
 Df Residuals:                     511   BIC:                             475.1
 Df Model:                          25                                         
@@ -1199,8 +1199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     21.14
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.31e-61
-Time:                        23:19:09   Log-Likelihood:                -155.99
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.31e-61
+Time:                        20:49:03   Log-Likelihood:                -155.99
 No. Observations:                 537   AIC:                             362.0
 Df Residuals:                     512   BIC:                             469.1
 Df Model:                          24                                         
@@ -1248,8 +1248,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.497
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.02
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.36e-62
-Time:                        23:19:09   Log-Likelihood:                -156.50
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.36e-62
+Time:                        20:49:03   Log-Likelihood:                -156.50
 No. Observations:                 537   AIC:                             361.0
 Df Residuals:                     513   BIC:                             463.9
 Df Model:                          23                                         
@@ -1296,8 +1296,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.496
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.98
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.42e-62
-Time:                        23:19:10   Log-Likelihood:                -157.00
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.42e-62
+Time:                        20:49:03   Log-Likelihood:                -157.00
 No. Observations:                 537   AIC:                             360.0
 Df Residuals:                     514   BIC:                             458.6
 Df Model:                          22                                         
@@ -1343,8 +1343,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.495
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     24.01
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.02e-63
-Time:                        23:19:10   Log-Likelihood:                -157.61
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.02e-63
+Time:                        20:49:03   Log-Likelihood:                -157.61
 No. Observations:                 537   AIC:                             359.2
 Df Residuals:                     515   BIC:                             453.5
 Df Model:                          21                                         
@@ -1389,8 +1389,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.493
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     25.14
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.83e-63
-Time:                        23:19:10   Log-Likelihood:                -158.28
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.83e-63
+Time:                        20:49:03   Log-Likelihood:                -158.28
 No. Observations:                 537   AIC:                             358.6
 Df Residuals:                     516   BIC:                             448.6
 Df Model:                          20                                         
@@ -1434,8 +1434,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.492
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     26.37
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.62e-64
-Time:                        23:19:10   Log-Likelihood:                -158.97
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.62e-64
+Time:                        20:49:03   Log-Likelihood:                -158.97
 No. Observations:                 537   AIC:                             357.9
 Df Residuals:                     517   BIC:                             443.7
 Df Model:                          19                                         
@@ -1478,8 +1478,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.491
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     27.74
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.41e-64
-Time:                        23:19:10   Log-Likelihood:                -159.69
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.41e-64
+Time:                        20:49:03   Log-Likelihood:                -159.69
 No. Observations:                 537   AIC:                             357.4
 Df Residuals:                     518   BIC:                             438.8
 Df Model:                          18                                         
@@ -1521,8 +1521,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.490
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     29.30
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           7.46e-65
-Time:                        23:19:10   Log-Likelihood:                -160.26
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           7.46e-65
+Time:                        20:49:03   Log-Likelihood:                -160.26
 No. Observations:                 537   AIC:                             356.5
 Df Residuals:                     519   BIC:                             433.7
 Df Model:                          17                                         
@@ -1563,8 +1563,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.488
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     30.95
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.50e-65
-Time:                        23:19:10   Log-Likelihood:                -161.30
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.50e-65
+Time:                        20:49:03   Log-Likelihood:                -161.30
 No. Observations:                 537   AIC:                             356.6
 Df Residuals:                     520   BIC:                             429.5
 Df Model:                          16                                         
@@ -1604,8 +1604,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.486
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     32.78
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.78e-65
-Time:                        23:19:10   Log-Likelihood:                -162.46
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.78e-65
+Time:                        20:49:03   Log-Likelihood:                -162.46
 No. Observations:                 537   AIC:                             356.9
 Df Residuals:                     521   BIC:                             425.5
 Df Model:                          15                                         
@@ -1644,8 +1644,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.480
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     37.10
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.13e-66
-Time:                        23:19:10   Log-Likelihood:                -165.46
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.13e-66
+Time:                        20:49:03   Log-Likelihood:                -165.46
 No. Observations:                 537   AIC:                             358.9
 Df Residuals:                     523   BIC:                             418.9
 Df Model:                          13                                         

--- a/results/ML/DT_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/DT_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF215EA2-F22D-4D50-A6F4-C34E877980AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A293A7E2-996C-4337-A1FD-5381AB800B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,8 +183,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     12.06
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.03e-51
-Time:                        20:49:03   Log-Likelihood:                -154.98
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.03e-51
+Time:                        21:22:43   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             394.0
 Df Residuals:                     495   BIC:                             574.0
 Df Model:                          41                                         
@@ -251,8 +251,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     12.38
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.89e-52
-Time:                        20:49:03   Log-Likelihood:                -154.98
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.89e-52
+Time:                        21:22:43   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             392.0
 Df Residuals:                     496   BIC:                             567.7
 Df Model:                          40                                         
@@ -318,8 +318,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.73
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.04e-53
-Time:                        20:49:03   Log-Likelihood:                -154.98
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.04e-53
+Time:                        21:22:43   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             390.0
 Df Residuals:                     497   BIC:                             561.4
 Df Model:                          39                                         
@@ -384,8 +384,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.461
 Method:                 Least Squares   F-statistic:                     13.09
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.21e-53
-Time:                        20:49:03   Log-Likelihood:                -154.99
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.21e-53
+Time:                        21:22:43   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             388.0
 Df Residuals:                     498   BIC:                             555.1
 Df Model:                          38                                         
@@ -449,8 +449,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.463
 Method:                 Least Squares   F-statistic:                     13.47
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.97e-54
-Time:                        20:49:03   Log-Likelihood:                -154.99
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.97e-54
+Time:                        21:22:43   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             386.0
 Df Residuals:                     499   BIC:                             548.8
 Df Model:                          37                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.464
 Method:                 Least Squares   F-statistic:                     13.87
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.59e-54
-Time:                        20:49:03   Log-Likelihood:                -154.99
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.59e-54
+Time:                        21:22:43   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             384.0
 Df Residuals:                     500   BIC:                             542.6
 Df Model:                          36                                         
@@ -576,8 +576,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.465
 Method:                 Least Squares   F-statistic:                     14.29
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.30e-55
-Time:                        20:49:03   Log-Likelihood:                -155.03
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.30e-55
+Time:                        21:22:43   Log-Likelihood:                -155.03
 No. Observations:                 537   AIC:                             382.1
 Df Residuals:                     501   BIC:                             536.4
 Df Model:                          35                                         
@@ -638,8 +638,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.466
 Method:                 Least Squares   F-statistic:                     14.74
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.14e-55
-Time:                        20:49:03   Log-Likelihood:                -155.06
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.14e-55
+Time:                        21:22:43   Log-Likelihood:                -155.06
 No. Observations:                 537   AIC:                             380.1
 Df Residuals:                     502   BIC:                             530.1
 Df Model:                          34                                         
@@ -699,8 +699,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     15.21
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.98e-56
-Time:                        20:49:03   Log-Likelihood:                -155.09
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.98e-56
+Time:                        21:22:43   Log-Likelihood:                -155.09
 No. Observations:                 537   AIC:                             378.2
 Df Residuals:                     503   BIC:                             523.9
 Df Model:                          33                                         
@@ -759,8 +759,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.468
 Method:                 Least Squares   F-statistic:                     15.71
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           7.50e-57
-Time:                        20:49:03   Log-Likelihood:                -155.10
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           7.50e-57
+Time:                        21:22:44   Log-Likelihood:                -155.10
 No. Observations:                 537   AIC:                             376.2
 Df Residuals:                     504   BIC:                             517.6
 Df Model:                          32                                         
@@ -818,8 +818,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.469
 Method:                 Least Squares   F-statistic:                     16.25
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.91e-57
-Time:                        20:49:03   Log-Likelihood:                -155.15
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.91e-57
+Time:                        21:22:44   Log-Likelihood:                -155.15
 No. Observations:                 537   AIC:                             374.3
 Df Residuals:                     505   BIC:                             511.4
 Df Model:                          31                                         
@@ -876,8 +876,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     16.81
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.91e-58
-Time:                        20:49:03   Log-Likelihood:                -155.22
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.91e-58
+Time:                        21:22:44   Log-Likelihood:                -155.22
 No. Observations:                 537   AIC:                             372.4
 Df Residuals:                     506   BIC:                             505.3
 Df Model:                          30                                         
@@ -933,8 +933,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     17.42
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.22e-58
-Time:                        20:49:03   Log-Likelihood:                -155.27
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.22e-58
+Time:                        21:22:44   Log-Likelihood:                -155.27
 No. Observations:                 537   AIC:                             370.5
 Df Residuals:                     507   BIC:                             499.1
 Df Model:                          29                                         
@@ -989,8 +989,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     18.07
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.10e-59
-Time:                        20:49:03   Log-Likelihood:                -155.37
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.10e-59
+Time:                        21:22:44   Log-Likelihood:                -155.37
 No. Observations:                 537   AIC:                             368.7
 Df Residuals:                     508   BIC:                             493.0
 Df Model:                          28                                         
@@ -1044,8 +1044,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     18.75
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.16e-60
-Time:                        20:49:03   Log-Likelihood:                -155.53
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.16e-60
+Time:                        21:22:44   Log-Likelihood:                -155.53
 No. Observations:                 537   AIC:                             367.1
 Df Residuals:                     509   BIC:                             487.1
 Df Model:                          27                                         
@@ -1098,8 +1098,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     19.50
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.99e-60
-Time:                        20:49:03   Log-Likelihood:                -155.62
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.99e-60
+Time:                        21:22:44   Log-Likelihood:                -155.62
 No. Observations:                 537   AIC:                             365.2
 Df Residuals:                     510   BIC:                             481.0
 Df Model:                          26                                         
@@ -1149,8 +1149,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     20.28
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.22e-61
-Time:                        20:49:03   Log-Likelihood:                -155.82
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.22e-61
+Time:                        21:22:44   Log-Likelihood:                -155.82
 No. Observations:                 537   AIC:                             363.6
 Df Residuals:                     511   BIC:                             475.1
 Df Model:                          25                                         
@@ -1199,8 +1199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     21.14
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.31e-61
-Time:                        20:49:03   Log-Likelihood:                -155.99
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.31e-61
+Time:                        21:22:44   Log-Likelihood:                -155.99
 No. Observations:                 537   AIC:                             362.0
 Df Residuals:                     512   BIC:                             469.1
 Df Model:                          24                                         
@@ -1248,8 +1248,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.497
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.02
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.36e-62
-Time:                        20:49:03   Log-Likelihood:                -156.50
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.36e-62
+Time:                        21:22:44   Log-Likelihood:                -156.50
 No. Observations:                 537   AIC:                             361.0
 Df Residuals:                     513   BIC:                             463.9
 Df Model:                          23                                         
@@ -1296,8 +1296,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.496
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.98
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.42e-62
-Time:                        20:49:03   Log-Likelihood:                -157.00
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.42e-62
+Time:                        21:22:44   Log-Likelihood:                -157.00
 No. Observations:                 537   AIC:                             360.0
 Df Residuals:                     514   BIC:                             458.6
 Df Model:                          22                                         
@@ -1343,8 +1343,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.495
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     24.01
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.02e-63
-Time:                        20:49:03   Log-Likelihood:                -157.61
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.02e-63
+Time:                        21:22:44   Log-Likelihood:                -157.61
 No. Observations:                 537   AIC:                             359.2
 Df Residuals:                     515   BIC:                             453.5
 Df Model:                          21                                         
@@ -1389,8 +1389,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.493
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     25.14
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.83e-63
-Time:                        20:49:03   Log-Likelihood:                -158.28
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.83e-63
+Time:                        21:22:44   Log-Likelihood:                -158.28
 No. Observations:                 537   AIC:                             358.6
 Df Residuals:                     516   BIC:                             448.6
 Df Model:                          20                                         
@@ -1434,8 +1434,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.492
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     26.37
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.62e-64
-Time:                        20:49:03   Log-Likelihood:                -158.97
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.62e-64
+Time:                        21:22:44   Log-Likelihood:                -158.97
 No. Observations:                 537   AIC:                             357.9
 Df Residuals:                     517   BIC:                             443.7
 Df Model:                          19                                         
@@ -1478,8 +1478,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.491
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     27.74
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.41e-64
-Time:                        20:49:03   Log-Likelihood:                -159.69
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.41e-64
+Time:                        21:22:44   Log-Likelihood:                -159.69
 No. Observations:                 537   AIC:                             357.4
 Df Residuals:                     518   BIC:                             438.8
 Df Model:                          18                                         
@@ -1521,8 +1521,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.490
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     29.30
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           7.46e-65
-Time:                        20:49:03   Log-Likelihood:                -160.26
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           7.46e-65
+Time:                        21:22:44   Log-Likelihood:                -160.26
 No. Observations:                 537   AIC:                             356.5
 Df Residuals:                     519   BIC:                             433.7
 Df Model:                          17                                         
@@ -1563,8 +1563,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.488
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     30.95
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.50e-65
-Time:                        20:49:03   Log-Likelihood:                -161.30
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.50e-65
+Time:                        21:22:44   Log-Likelihood:                -161.30
 No. Observations:                 537   AIC:                             356.6
 Df Residuals:                     520   BIC:                             429.5
 Df Model:                          16                                         
@@ -1604,8 +1604,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.486
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     32.78
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.78e-65
-Time:                        20:49:03   Log-Likelihood:                -162.46
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.78e-65
+Time:                        21:22:44   Log-Likelihood:                -162.46
 No. Observations:                 537   AIC:                             356.9
 Df Residuals:                     521   BIC:                             425.5
 Df Model:                          15                                         
@@ -1644,8 +1644,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.480
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     37.10
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.13e-66
-Time:                        20:49:03   Log-Likelihood:                -165.46
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.13e-66
+Time:                        21:22:44   Log-Likelihood:                -165.46
 No. Observations:                 537   AIC:                             358.9
 Df Residuals:                     523   BIC:                             418.9
 Df Model:                          13                                         

--- a/results/ML/DT_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/DT_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A293A7E2-996C-4337-A1FD-5381AB800B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162C5B59-2371-4BA9-989F-934E3C60466B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="41" sheetId="1" r:id="rId1"/>
@@ -183,8 +183,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     12.06
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.03e-51
-Time:                        21:22:43   Log-Likelihood:                -154.98
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.03e-51
+Time:                        19:07:46   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             394.0
 Df Residuals:                     495   BIC:                             574.0
 Df Model:                          41                                         
@@ -251,8 +251,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     12.38
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.89e-52
-Time:                        21:22:43   Log-Likelihood:                -154.98
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.89e-52
+Time:                        19:07:46   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             392.0
 Df Residuals:                     496   BIC:                             567.7
 Df Model:                          40                                         
@@ -318,8 +318,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.73
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.04e-53
-Time:                        21:22:43   Log-Likelihood:                -154.98
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           8.04e-53
+Time:                        19:07:46   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             390.0
 Df Residuals:                     497   BIC:                             561.4
 Df Model:                          39                                         
@@ -384,8 +384,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.461
 Method:                 Least Squares   F-statistic:                     13.09
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.21e-53
-Time:                        21:22:43   Log-Likelihood:                -154.99
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.21e-53
+Time:                        19:07:46   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             388.0
 Df Residuals:                     498   BIC:                             555.1
 Df Model:                          38                                         
@@ -449,8 +449,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.463
 Method:                 Least Squares   F-statistic:                     13.47
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.97e-54
-Time:                        21:22:43   Log-Likelihood:                -154.99
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           5.97e-54
+Time:                        19:07:47   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             386.0
 Df Residuals:                     499   BIC:                             548.8
 Df Model:                          37                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.464
 Method:                 Least Squares   F-statistic:                     13.87
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.59e-54
-Time:                        21:22:43   Log-Likelihood:                -154.99
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.59e-54
+Time:                        19:07:47   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             384.0
 Df Residuals:                     500   BIC:                             542.6
 Df Model:                          36                                         
@@ -576,8 +576,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.465
 Method:                 Least Squares   F-statistic:                     14.29
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.30e-55
-Time:                        21:22:43   Log-Likelihood:                -155.03
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           4.30e-55
+Time:                        19:07:47   Log-Likelihood:                -155.03
 No. Observations:                 537   AIC:                             382.1
 Df Residuals:                     501   BIC:                             536.4
 Df Model:                          35                                         
@@ -638,8 +638,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.466
 Method:                 Least Squares   F-statistic:                     14.74
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.14e-55
-Time:                        21:22:43   Log-Likelihood:                -155.06
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.14e-55
+Time:                        19:07:47   Log-Likelihood:                -155.06
 No. Observations:                 537   AIC:                             380.1
 Df Residuals:                     502   BIC:                             530.1
 Df Model:                          34                                         
@@ -699,8 +699,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     15.21
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.98e-56
-Time:                        21:22:43   Log-Likelihood:                -155.09
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.98e-56
+Time:                        19:07:47   Log-Likelihood:                -155.09
 No. Observations:                 537   AIC:                             378.2
 Df Residuals:                     503   BIC:                             523.9
 Df Model:                          33                                         
@@ -759,8 +759,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.468
 Method:                 Least Squares   F-statistic:                     15.71
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           7.50e-57
-Time:                        21:22:44   Log-Likelihood:                -155.10
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           7.50e-57
+Time:                        19:07:47   Log-Likelihood:                -155.10
 No. Observations:                 537   AIC:                             376.2
 Df Residuals:                     504   BIC:                             517.6
 Df Model:                          32                                         
@@ -818,8 +818,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.469
 Method:                 Least Squares   F-statistic:                     16.25
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.91e-57
-Time:                        21:22:44   Log-Likelihood:                -155.15
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.91e-57
+Time:                        19:07:47   Log-Likelihood:                -155.15
 No. Observations:                 537   AIC:                             374.3
 Df Residuals:                     505   BIC:                             511.4
 Df Model:                          31                                         
@@ -876,8 +876,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     16.81
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.91e-58
-Time:                        21:22:44   Log-Likelihood:                -155.22
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           4.91e-58
+Time:                        19:07:47   Log-Likelihood:                -155.22
 No. Observations:                 537   AIC:                             372.4
 Df Residuals:                     506   BIC:                             505.3
 Df Model:                          30                                         
@@ -933,8 +933,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     17.42
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.22e-58
-Time:                        21:22:44   Log-Likelihood:                -155.27
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.22e-58
+Time:                        19:07:47   Log-Likelihood:                -155.27
 No. Observations:                 537   AIC:                             370.5
 Df Residuals:                     507   BIC:                             499.1
 Df Model:                          29                                         
@@ -989,8 +989,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     18.07
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.10e-59
-Time:                        21:22:44   Log-Likelihood:                -155.37
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           3.10e-59
+Time:                        19:07:47   Log-Likelihood:                -155.37
 No. Observations:                 537   AIC:                             368.7
 Df Residuals:                     508   BIC:                             493.0
 Df Model:                          28                                         
@@ -1044,8 +1044,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     18.75
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.16e-60
-Time:                        21:22:44   Log-Likelihood:                -155.53
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           8.16e-60
+Time:                        19:07:47   Log-Likelihood:                -155.53
 No. Observations:                 537   AIC:                             367.1
 Df Residuals:                     509   BIC:                             487.1
 Df Model:                          27                                         
@@ -1098,8 +1098,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     19.50
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.99e-60
-Time:                        21:22:44   Log-Likelihood:                -155.62
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.99e-60
+Time:                        19:07:47   Log-Likelihood:                -155.62
 No. Observations:                 537   AIC:                             365.2
 Df Residuals:                     510   BIC:                             481.0
 Df Model:                          26                                         
@@ -1149,8 +1149,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     20.28
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.22e-61
-Time:                        21:22:44   Log-Likelihood:                -155.82
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           5.22e-61
+Time:                        19:07:47   Log-Likelihood:                -155.82
 No. Observations:                 537   AIC:                             363.6
 Df Residuals:                     511   BIC:                             475.1
 Df Model:                          25                                         
@@ -1199,8 +1199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     21.14
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.31e-61
-Time:                        21:22:44   Log-Likelihood:                -155.99
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.31e-61
+Time:                        19:07:47   Log-Likelihood:                -155.99
 No. Observations:                 537   AIC:                             362.0
 Df Residuals:                     512   BIC:                             469.1
 Df Model:                          24                                         
@@ -1248,8 +1248,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.497
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.02
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.36e-62
-Time:                        21:22:44   Log-Likelihood:                -156.50
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           4.36e-62
+Time:                        19:07:47   Log-Likelihood:                -156.50
 No. Observations:                 537   AIC:                             361.0
 Df Residuals:                     513   BIC:                             463.9
 Df Model:                          23                                         
@@ -1296,8 +1296,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.496
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.98
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.42e-62
-Time:                        21:22:44   Log-Likelihood:                -157.00
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.42e-62
+Time:                        19:07:47   Log-Likelihood:                -157.00
 No. Observations:                 537   AIC:                             360.0
 Df Residuals:                     514   BIC:                             458.6
 Df Model:                          22                                         
@@ -1343,8 +1343,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.495
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     24.01
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.02e-63
-Time:                        21:22:44   Log-Likelihood:                -157.61
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           5.02e-63
+Time:                        19:07:47   Log-Likelihood:                -157.61
 No. Observations:                 537   AIC:                             359.2
 Df Residuals:                     515   BIC:                             453.5
 Df Model:                          21                                         
@@ -1389,8 +1389,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.493
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     25.14
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.83e-63
-Time:                        21:22:44   Log-Likelihood:                -158.28
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.83e-63
+Time:                        19:07:47   Log-Likelihood:                -158.28
 No. Observations:                 537   AIC:                             358.6
 Df Residuals:                     516   BIC:                             448.6
 Df Model:                          20                                         
@@ -1434,8 +1434,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.492
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     26.37
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.62e-64
-Time:                        21:22:44   Log-Likelihood:                -158.97
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           6.62e-64
+Time:                        19:07:47   Log-Likelihood:                -158.97
 No. Observations:                 537   AIC:                             357.9
 Df Residuals:                     517   BIC:                             443.7
 Df Model:                          19                                         
@@ -1478,8 +1478,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.491
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     27.74
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.41e-64
-Time:                        21:22:44   Log-Likelihood:                -159.69
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.41e-64
+Time:                        19:07:47   Log-Likelihood:                -159.69
 No. Observations:                 537   AIC:                             357.4
 Df Residuals:                     518   BIC:                             438.8
 Df Model:                          18                                         
@@ -1521,8 +1521,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.490
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     29.30
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           7.46e-65
-Time:                        21:22:44   Log-Likelihood:                -160.26
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           7.46e-65
+Time:                        19:07:47   Log-Likelihood:                -160.26
 No. Observations:                 537   AIC:                             356.5
 Df Residuals:                     519   BIC:                             433.7
 Df Model:                          17                                         
@@ -1563,8 +1563,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.488
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     30.95
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.50e-65
-Time:                        21:22:44   Log-Likelihood:                -161.30
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           3.50e-65
+Time:                        19:07:47   Log-Likelihood:                -161.30
 No. Observations:                 537   AIC:                             356.6
 Df Residuals:                     520   BIC:                             429.5
 Df Model:                          16                                         
@@ -1604,8 +1604,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.486
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     32.78
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.78e-65
-Time:                        21:22:44   Log-Likelihood:                -162.46
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.78e-65
+Time:                        19:07:47   Log-Likelihood:                -162.46
 No. Observations:                 537   AIC:                             356.9
 Df Residuals:                     521   BIC:                             425.5
 Df Model:                          15                                         
@@ -1644,8 +1644,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.480
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     37.10
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.13e-66
-Time:                        21:22:44   Log-Likelihood:                -165.46
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           8.13e-66
+Time:                        19:07:47   Log-Likelihood:                -165.46
 No. Observations:                 537   AIC:                             358.9
 Df Residuals:                     523   BIC:                             418.9
 Df Model:                          13                                         
